--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.168014</v>
+        <v>32.935093</v>
       </c>
       <c r="H2">
-        <v>90.504042</v>
+        <v>98.80527900000001</v>
       </c>
       <c r="I2">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="J2">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2333953333333333</v>
+        <v>0.1874803333333333</v>
       </c>
       <c r="N2">
-        <v>0.700186</v>
+        <v>0.562441</v>
       </c>
       <c r="O2">
-        <v>0.0679343338760815</v>
+        <v>0.05433595702903294</v>
       </c>
       <c r="P2">
-        <v>0.0679343338760815</v>
+        <v>0.05433595702903293</v>
       </c>
       <c r="Q2">
-        <v>7.041073683534666</v>
+        <v>6.174682214004334</v>
       </c>
       <c r="R2">
-        <v>63.369663151812</v>
+        <v>55.57213992603901</v>
       </c>
       <c r="S2">
-        <v>0.01595932275996894</v>
+        <v>0.01346812033479339</v>
       </c>
       <c r="T2">
-        <v>0.01595932275996894</v>
+        <v>0.01346812033479339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.168014</v>
+        <v>32.935093</v>
       </c>
       <c r="H3">
-        <v>90.504042</v>
+        <v>98.80527900000001</v>
       </c>
       <c r="I3">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="J3">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.565113</v>
       </c>
       <c r="O3">
-        <v>0.8310152534160438</v>
+        <v>0.8274532118334392</v>
       </c>
       <c r="P3">
-        <v>0.8310152534160438</v>
+        <v>0.8274532118334392</v>
       </c>
       <c r="Q3">
-        <v>86.13081629852734</v>
+        <v>94.03093107016967</v>
       </c>
       <c r="R3">
-        <v>775.177346686746</v>
+        <v>846.2783796315272</v>
       </c>
       <c r="S3">
-        <v>0.1952244158589373</v>
+        <v>0.2050987971451285</v>
       </c>
       <c r="T3">
-        <v>0.1952244158589373</v>
+        <v>0.2050987971451285</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.168014</v>
+        <v>32.935093</v>
       </c>
       <c r="H4">
-        <v>90.504042</v>
+        <v>98.80527900000001</v>
       </c>
       <c r="I4">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="J4">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.347169</v>
+        <v>0.01317533333333333</v>
       </c>
       <c r="N4">
-        <v>1.041507</v>
+        <v>0.039526</v>
       </c>
       <c r="O4">
-        <v>0.1010504127078748</v>
+        <v>0.003818503696440259</v>
       </c>
       <c r="P4">
-        <v>0.1010504127078748</v>
+        <v>0.003818503696440259</v>
       </c>
       <c r="Q4">
-        <v>10.473399252366</v>
+        <v>0.4339308286393333</v>
       </c>
       <c r="R4">
-        <v>94.260593271294</v>
+        <v>3.905377457754001</v>
       </c>
       <c r="S4">
-        <v>0.02373904415364913</v>
+        <v>0.0009464831410815421</v>
       </c>
       <c r="T4">
-        <v>0.02373904415364913</v>
+        <v>0.0009464831410815421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.93392299999999</v>
+        <v>32.935093</v>
       </c>
       <c r="H5">
-        <v>197.801769</v>
+        <v>98.80527900000001</v>
       </c>
       <c r="I5">
-        <v>0.5134372010789768</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="J5">
-        <v>0.5134372010789768</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2333953333333333</v>
+        <v>0.3946983333333333</v>
       </c>
       <c r="N5">
-        <v>0.700186</v>
+        <v>1.184095</v>
       </c>
       <c r="O5">
-        <v>0.0679343338760815</v>
+        <v>0.1143923274410876</v>
       </c>
       <c r="P5">
-        <v>0.0679343338760815</v>
+        <v>0.1143923274410876</v>
       </c>
       <c r="Q5">
-        <v>15.38866993655933</v>
+        <v>12.99942631527833</v>
       </c>
       <c r="R5">
-        <v>138.498029429034</v>
+        <v>116.994836837505</v>
       </c>
       <c r="S5">
-        <v>0.03488001424250001</v>
+        <v>0.02835414549762052</v>
       </c>
       <c r="T5">
-        <v>0.03488001424250001</v>
+        <v>0.02835414549762052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>197.801769</v>
       </c>
       <c r="I6">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988433</v>
       </c>
       <c r="J6">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988432</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.855037666666667</v>
+        <v>0.1874803333333333</v>
       </c>
       <c r="N6">
-        <v>8.565113</v>
+        <v>0.562441</v>
       </c>
       <c r="O6">
-        <v>0.8310152534160438</v>
+        <v>0.05433595702903294</v>
       </c>
       <c r="P6">
-        <v>0.8310152534160438</v>
+        <v>0.05433595702903293</v>
       </c>
       <c r="Q6">
-        <v>188.2438336760997</v>
+        <v>12.36131386201433</v>
       </c>
       <c r="R6">
-        <v>1694.194503084897</v>
+        <v>111.251824758129</v>
       </c>
       <c r="S6">
-        <v>0.4266741457678702</v>
+        <v>0.02696230458827008</v>
       </c>
       <c r="T6">
-        <v>0.4266741457678702</v>
+        <v>0.02696230458827007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>197.801769</v>
       </c>
       <c r="I7">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988433</v>
       </c>
       <c r="J7">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988432</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,43 +868,43 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.347169</v>
+        <v>2.855037666666667</v>
       </c>
       <c r="N7">
-        <v>1.041507</v>
+        <v>8.565113</v>
       </c>
       <c r="O7">
-        <v>0.1010504127078748</v>
+        <v>0.8274532118334392</v>
       </c>
       <c r="P7">
-        <v>0.1010504127078748</v>
+        <v>0.8274532118334392</v>
       </c>
       <c r="Q7">
-        <v>22.890214113987</v>
+        <v>188.2438336760997</v>
       </c>
       <c r="R7">
-        <v>206.011927025883</v>
+        <v>1694.194503084897</v>
       </c>
       <c r="S7">
-        <v>0.0518830410686067</v>
+        <v>0.4105945077598391</v>
       </c>
       <c r="T7">
-        <v>0.0518830410686067</v>
+        <v>0.4105945077598391</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.984842</v>
+        <v>65.93392299999999</v>
       </c>
       <c r="H8">
-        <v>29.954526</v>
+        <v>197.801769</v>
       </c>
       <c r="I8">
-        <v>0.07775344005688564</v>
+        <v>0.4962147730988433</v>
       </c>
       <c r="J8">
-        <v>0.07775344005688566</v>
+        <v>0.4962147730988432</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2333953333333333</v>
+        <v>0.01317533333333333</v>
       </c>
       <c r="N8">
-        <v>0.700186</v>
+        <v>0.039526</v>
       </c>
       <c r="O8">
-        <v>0.0679343338760815</v>
+        <v>0.003818503696440259</v>
       </c>
       <c r="P8">
-        <v>0.0679343338760815</v>
+        <v>0.003818503696440259</v>
       </c>
       <c r="Q8">
-        <v>2.330415526870667</v>
+        <v>0.8687014134993332</v>
       </c>
       <c r="R8">
-        <v>20.973739741836</v>
+        <v>7.818312721493998</v>
       </c>
       <c r="S8">
-        <v>0.005282128156838359</v>
+        <v>0.001894797945306197</v>
       </c>
       <c r="T8">
-        <v>0.00528212815683836</v>
+        <v>0.001894797945306197</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.984842</v>
+        <v>65.93392299999999</v>
       </c>
       <c r="H9">
-        <v>29.954526</v>
+        <v>197.801769</v>
       </c>
       <c r="I9">
-        <v>0.07775344005688564</v>
+        <v>0.4962147730988433</v>
       </c>
       <c r="J9">
-        <v>0.07775344005688566</v>
+        <v>0.4962147730988432</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.855037666666667</v>
+        <v>0.3946983333333333</v>
       </c>
       <c r="N9">
-        <v>8.565113</v>
+        <v>1.184095</v>
       </c>
       <c r="O9">
-        <v>0.8310152534160438</v>
+        <v>0.1143923274410876</v>
       </c>
       <c r="P9">
-        <v>0.8310152534160438</v>
+        <v>0.1143923274410876</v>
       </c>
       <c r="Q9">
-        <v>28.50710000571533</v>
+        <v>26.02400951822833</v>
       </c>
       <c r="R9">
-        <v>256.563900051438</v>
+        <v>234.216085664055</v>
       </c>
       <c r="S9">
-        <v>0.06461429469284199</v>
+        <v>0.05676316280542787</v>
       </c>
       <c r="T9">
-        <v>0.06461429469284199</v>
+        <v>0.05676316280542786</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.984842</v>
+        <v>13.46314666666667</v>
       </c>
       <c r="H10">
-        <v>29.954526</v>
+        <v>40.38944</v>
       </c>
       <c r="I10">
-        <v>0.07775344005688564</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="J10">
-        <v>0.07775344005688566</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.347169</v>
+        <v>0.1874803333333333</v>
       </c>
       <c r="N10">
-        <v>1.041507</v>
+        <v>0.562441</v>
       </c>
       <c r="O10">
-        <v>0.1010504127078748</v>
+        <v>0.05433595702903294</v>
       </c>
       <c r="P10">
-        <v>0.1010504127078748</v>
+        <v>0.05433595702903293</v>
       </c>
       <c r="Q10">
-        <v>3.466427612298</v>
+        <v>2.524075224782222</v>
       </c>
       <c r="R10">
-        <v>31.197848510682</v>
+        <v>22.71667702304</v>
       </c>
       <c r="S10">
-        <v>0.007857017207205297</v>
+        <v>0.005505473428954314</v>
       </c>
       <c r="T10">
-        <v>0.007857017207205299</v>
+        <v>0.005505473428954313</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.100318666666666</v>
+        <v>13.46314666666667</v>
       </c>
       <c r="H11">
-        <v>18.300956</v>
+        <v>40.38944</v>
       </c>
       <c r="I11">
-        <v>0.04750408286646571</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="J11">
-        <v>0.04750408286646571</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2333953333333333</v>
+        <v>2.855037666666667</v>
       </c>
       <c r="N11">
-        <v>0.700186</v>
+        <v>8.565113</v>
       </c>
       <c r="O11">
-        <v>0.0679343338760815</v>
+        <v>0.8274532118334392</v>
       </c>
       <c r="P11">
-        <v>0.0679343338760815</v>
+        <v>0.8274532118334392</v>
       </c>
       <c r="Q11">
-        <v>1.423785908646222</v>
+        <v>38.43779084519111</v>
       </c>
       <c r="R11">
-        <v>12.814073177816</v>
+        <v>345.94011760672</v>
       </c>
       <c r="S11">
-        <v>0.003227158225927524</v>
+        <v>0.08383990860817608</v>
       </c>
       <c r="T11">
-        <v>0.003227158225927524</v>
+        <v>0.08383990860817608</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.100318666666666</v>
+        <v>13.46314666666667</v>
       </c>
       <c r="H12">
-        <v>18.300956</v>
+        <v>40.38944</v>
       </c>
       <c r="I12">
-        <v>0.04750408286646571</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="J12">
-        <v>0.04750408286646571</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.855037666666667</v>
+        <v>0.01317533333333333</v>
       </c>
       <c r="N12">
-        <v>8.565113</v>
+        <v>0.039526</v>
       </c>
       <c r="O12">
-        <v>0.8310152534160438</v>
+        <v>0.003818503696440259</v>
       </c>
       <c r="P12">
-        <v>0.8310152534160438</v>
+        <v>0.003818503696440259</v>
       </c>
       <c r="Q12">
-        <v>17.41663957200311</v>
+        <v>0.1773814450488889</v>
       </c>
       <c r="R12">
-        <v>156.749756148028</v>
+        <v>1.59643300544</v>
       </c>
       <c r="S12">
-        <v>0.03947661746157274</v>
+        <v>0.0003869016354654945</v>
       </c>
       <c r="T12">
-        <v>0.03947661746157275</v>
+        <v>0.0003869016354654945</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.100318666666666</v>
+        <v>13.46314666666667</v>
       </c>
       <c r="H13">
-        <v>18.300956</v>
+        <v>40.38944</v>
       </c>
       <c r="I13">
-        <v>0.04750408286646571</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="J13">
-        <v>0.04750408286646571</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.347169</v>
+        <v>0.3946983333333333</v>
       </c>
       <c r="N13">
-        <v>1.041507</v>
+        <v>1.184095</v>
       </c>
       <c r="O13">
-        <v>0.1010504127078748</v>
+        <v>0.1143923274410876</v>
       </c>
       <c r="P13">
-        <v>0.1010504127078748</v>
+        <v>0.1143923274410876</v>
       </c>
       <c r="Q13">
-        <v>2.117841531188</v>
+        <v>5.313881550755555</v>
       </c>
       <c r="R13">
-        <v>19.060573780692</v>
+        <v>47.8249339568</v>
       </c>
       <c r="S13">
-        <v>0.004800307178965442</v>
+        <v>0.01159055538244484</v>
       </c>
       <c r="T13">
-        <v>0.004800307178965443</v>
+        <v>0.01159055538244484</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.22962566666667</v>
+        <v>6.098311666666667</v>
       </c>
       <c r="H14">
-        <v>48.68887700000001</v>
+        <v>18.294935</v>
       </c>
       <c r="I14">
-        <v>0.1263824932251166</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="J14">
-        <v>0.1263824932251166</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2333953333333333</v>
+        <v>0.1874803333333333</v>
       </c>
       <c r="N14">
-        <v>0.700186</v>
+        <v>0.562441</v>
       </c>
       <c r="O14">
-        <v>0.0679343338760815</v>
+        <v>0.05433595702903294</v>
       </c>
       <c r="P14">
-        <v>0.0679343338760815</v>
+        <v>0.05433595702903293</v>
       </c>
       <c r="Q14">
-        <v>3.787918892346889</v>
+        <v>1.143313504037222</v>
       </c>
       <c r="R14">
-        <v>34.091270031122</v>
+        <v>10.289821536335</v>
       </c>
       <c r="S14">
-        <v>0.008585710490846677</v>
+        <v>0.002493777544995581</v>
       </c>
       <c r="T14">
-        <v>0.008585710490846679</v>
+        <v>0.00249377754499558</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.22962566666667</v>
+        <v>6.098311666666667</v>
       </c>
       <c r="H15">
-        <v>48.68887700000001</v>
+        <v>18.294935</v>
       </c>
       <c r="I15">
-        <v>0.1263824932251166</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="J15">
-        <v>0.1263824932251166</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,84 +1370,394 @@
         <v>8.565113</v>
       </c>
       <c r="O15">
-        <v>0.8310152534160438</v>
+        <v>0.8274532118334392</v>
       </c>
       <c r="P15">
-        <v>0.8310152534160438</v>
+        <v>0.8274532118334392</v>
       </c>
       <c r="Q15">
-        <v>46.33619259423345</v>
+        <v>17.41090951140611</v>
       </c>
       <c r="R15">
-        <v>417.025733348101</v>
+        <v>156.698185602655</v>
       </c>
       <c r="S15">
-        <v>0.1050257796348217</v>
+        <v>0.03797640369345359</v>
       </c>
       <c r="T15">
-        <v>0.1050257796348217</v>
+        <v>0.03797640369345359</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.098311666666667</v>
+      </c>
+      <c r="H16">
+        <v>18.294935</v>
+      </c>
+      <c r="I16">
+        <v>0.04589552998326869</v>
+      </c>
+      <c r="J16">
+        <v>0.04589552998326869</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01317533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.039526</v>
+      </c>
+      <c r="O16">
+        <v>0.003818503696440259</v>
+      </c>
+      <c r="P16">
+        <v>0.003818503696440259</v>
+      </c>
+      <c r="Q16">
+        <v>0.08034728897888889</v>
+      </c>
+      <c r="R16">
+        <v>0.7231256008100001</v>
+      </c>
+      <c r="S16">
+        <v>0.0001752522508911963</v>
+      </c>
+      <c r="T16">
+        <v>0.0001752522508911963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.098311666666667</v>
+      </c>
+      <c r="H17">
+        <v>18.294935</v>
+      </c>
+      <c r="I17">
+        <v>0.04589552998326869</v>
+      </c>
+      <c r="J17">
+        <v>0.04589552998326869</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3946983333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.184095</v>
+      </c>
+      <c r="O17">
+        <v>0.1143923274410876</v>
+      </c>
+      <c r="P17">
+        <v>0.1143923274410876</v>
+      </c>
+      <c r="Q17">
+        <v>2.406993450980556</v>
+      </c>
+      <c r="R17">
+        <v>21.662941058825</v>
+      </c>
+      <c r="S17">
+        <v>0.005250096493928326</v>
+      </c>
+      <c r="T17">
+        <v>0.005250096493928326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>14.44328633333333</v>
+      </c>
+      <c r="H18">
+        <v>43.329859</v>
+      </c>
+      <c r="I18">
+        <v>0.1086993117442235</v>
+      </c>
+      <c r="J18">
+        <v>0.1086993117442234</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1874803333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.562441</v>
+      </c>
+      <c r="O18">
+        <v>0.05433595702903294</v>
+      </c>
+      <c r="P18">
+        <v>0.05433595702903293</v>
+      </c>
+      <c r="Q18">
+        <v>2.707832136202111</v>
+      </c>
+      <c r="R18">
+        <v>24.370489225819</v>
+      </c>
+      <c r="S18">
+        <v>0.005906281132019581</v>
+      </c>
+      <c r="T18">
+        <v>0.00590628113201958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>14.44328633333333</v>
+      </c>
+      <c r="H19">
+        <v>43.329859</v>
+      </c>
+      <c r="I19">
+        <v>0.1086993117442235</v>
+      </c>
+      <c r="J19">
+        <v>0.1086993117442234</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.855037666666667</v>
+      </c>
+      <c r="N19">
+        <v>8.565113</v>
+      </c>
+      <c r="O19">
+        <v>0.8274532118334392</v>
+      </c>
+      <c r="P19">
+        <v>0.8274532118334392</v>
+      </c>
+      <c r="Q19">
+        <v>41.23612651211855</v>
+      </c>
+      <c r="R19">
+        <v>371.125138609067</v>
+      </c>
+      <c r="S19">
+        <v>0.08994359462684198</v>
+      </c>
+      <c r="T19">
+        <v>0.08994359462684197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>14.44328633333333</v>
+      </c>
+      <c r="H20">
+        <v>43.329859</v>
+      </c>
+      <c r="I20">
+        <v>0.1086993117442235</v>
+      </c>
+      <c r="J20">
+        <v>0.1086993117442234</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01317533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.039526</v>
+      </c>
+      <c r="O20">
+        <v>0.003818503696440259</v>
+      </c>
+      <c r="P20">
+        <v>0.003818503696440259</v>
+      </c>
+      <c r="Q20">
+        <v>0.1902951118704444</v>
+      </c>
+      <c r="R20">
+        <v>1.712656006834</v>
+      </c>
+      <c r="S20">
+        <v>0.0004150687236958293</v>
+      </c>
+      <c r="T20">
+        <v>0.0004150687236958293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>16.22962566666667</v>
-      </c>
-      <c r="H16">
-        <v>48.68887700000001</v>
-      </c>
-      <c r="I16">
-        <v>0.1263824932251166</v>
-      </c>
-      <c r="J16">
-        <v>0.1263824932251166</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.347169</v>
-      </c>
-      <c r="N16">
-        <v>1.041507</v>
-      </c>
-      <c r="O16">
-        <v>0.1010504127078748</v>
-      </c>
-      <c r="P16">
-        <v>0.1010504127078748</v>
-      </c>
-      <c r="Q16">
-        <v>5.634422913071</v>
-      </c>
-      <c r="R16">
-        <v>50.70980621763901</v>
-      </c>
-      <c r="S16">
-        <v>0.01277100309944822</v>
-      </c>
-      <c r="T16">
-        <v>0.01277100309944822</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>14.44328633333333</v>
+      </c>
+      <c r="H21">
+        <v>43.329859</v>
+      </c>
+      <c r="I21">
+        <v>0.1086993117442235</v>
+      </c>
+      <c r="J21">
+        <v>0.1086993117442234</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3946983333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.184095</v>
+      </c>
+      <c r="O21">
+        <v>0.1143923274410876</v>
+      </c>
+      <c r="P21">
+        <v>0.1143923274410876</v>
+      </c>
+      <c r="Q21">
+        <v>5.700741043622777</v>
+      </c>
+      <c r="R21">
+        <v>51.306669392605</v>
+      </c>
+      <c r="S21">
+        <v>0.01243436726166607</v>
+      </c>
+      <c r="T21">
+        <v>0.01243436726166607</v>
       </c>
     </row>
   </sheetData>
